--- a/Code/Results/Cases/Case_4_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9965984329529927</v>
+        <v>1.071078228498918</v>
       </c>
       <c r="D2">
-        <v>1.011720742181375</v>
+        <v>1.061183748586212</v>
       </c>
       <c r="E2">
-        <v>1.011718733591605</v>
+        <v>1.084771117061936</v>
       </c>
       <c r="F2">
-        <v>1.013466433711003</v>
+        <v>1.091975180185917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038406114401592</v>
+        <v>1.041242387694905</v>
       </c>
       <c r="J2">
-        <v>1.018881362502508</v>
+        <v>1.076004643915476</v>
       </c>
       <c r="K2">
-        <v>1.023019168192625</v>
+        <v>1.063908500353023</v>
       </c>
       <c r="L2">
-        <v>1.023017186776122</v>
+        <v>1.087433274228871</v>
       </c>
       <c r="M2">
-        <v>1.024741294281931</v>
+        <v>1.094618801330121</v>
       </c>
       <c r="N2">
-        <v>1.020328290904587</v>
+        <v>1.077532693929294</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008678165147838</v>
+        <v>1.073225611200939</v>
       </c>
       <c r="D3">
-        <v>1.020604867033013</v>
+        <v>1.062748287427633</v>
       </c>
       <c r="E3">
-        <v>1.023661598288282</v>
+        <v>1.086955617671272</v>
       </c>
       <c r="F3">
-        <v>1.026106794000881</v>
+        <v>1.094309064427237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041767913846436</v>
+        <v>1.041716542126218</v>
       </c>
       <c r="J3">
-        <v>1.028935018170732</v>
+        <v>1.07780420592111</v>
       </c>
       <c r="K3">
-        <v>1.030980721823109</v>
+        <v>1.065285720743031</v>
       </c>
       <c r="L3">
-        <v>1.034000417868256</v>
+        <v>1.08943356105254</v>
       </c>
       <c r="M3">
-        <v>1.036416184813237</v>
+        <v>1.096769496314435</v>
       </c>
       <c r="N3">
-        <v>1.03039622391703</v>
+        <v>1.079334811519388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016132771687607</v>
+        <v>1.07460943965118</v>
       </c>
       <c r="D4">
-        <v>1.026089495892063</v>
+        <v>1.063755611417724</v>
       </c>
       <c r="E4">
-        <v>1.031038899966077</v>
+        <v>1.088363775259226</v>
       </c>
       <c r="F4">
-        <v>1.033917319638384</v>
+        <v>1.095813968642354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043825934929248</v>
+        <v>1.042019819090874</v>
       </c>
       <c r="J4">
-        <v>1.035132612531598</v>
+        <v>1.078962812116172</v>
       </c>
       <c r="K4">
-        <v>1.03588291931741</v>
+        <v>1.066171353673845</v>
       </c>
       <c r="L4">
-        <v>1.040776607278274</v>
+        <v>1.090722151676594</v>
       </c>
       <c r="M4">
-        <v>1.043622925993684</v>
+        <v>1.098155521383163</v>
       </c>
       <c r="N4">
-        <v>1.036602619572763</v>
+        <v>1.080495063068142</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019187785946472</v>
+        <v>1.075189875220028</v>
       </c>
       <c r="D5">
-        <v>1.028337401246209</v>
+        <v>1.064177906796334</v>
       </c>
       <c r="E5">
-        <v>1.034063842306251</v>
+        <v>1.08895451302169</v>
       </c>
       <c r="F5">
-        <v>1.037120511530767</v>
+        <v>1.096445401165437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044665229913194</v>
+        <v>1.04214647933247</v>
       </c>
       <c r="J5">
-        <v>1.037670771245729</v>
+        <v>1.079448521541835</v>
       </c>
       <c r="K5">
-        <v>1.037889100429901</v>
+        <v>1.066542373259453</v>
       </c>
       <c r="L5">
-        <v>1.043553077814521</v>
+        <v>1.091262533476441</v>
       </c>
       <c r="M5">
-        <v>1.046576751189015</v>
+        <v>1.098736892914698</v>
       </c>
       <c r="N5">
-        <v>1.039144382763398</v>
+        <v>1.080981462256901</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019696313072981</v>
+        <v>1.075287256076027</v>
       </c>
       <c r="D6">
-        <v>1.028711585128812</v>
+        <v>1.064248743284328</v>
       </c>
       <c r="E6">
-        <v>1.034567455553069</v>
+        <v>1.089053628004692</v>
       </c>
       <c r="F6">
-        <v>1.037653838261176</v>
+        <v>1.096551350354559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044804690345799</v>
+        <v>1.042167697279688</v>
       </c>
       <c r="J6">
-        <v>1.038093160706593</v>
+        <v>1.079529994823058</v>
       </c>
       <c r="K6">
-        <v>1.038222871988148</v>
+        <v>1.066604593430315</v>
       </c>
       <c r="L6">
-        <v>1.044015206408717</v>
+        <v>1.091353188140443</v>
       </c>
       <c r="M6">
-        <v>1.047068455486656</v>
+        <v>1.09883443164847</v>
       </c>
       <c r="N6">
-        <v>1.039567372065746</v>
+        <v>1.081063051239528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016173893604946</v>
+        <v>1.074617200626703</v>
       </c>
       <c r="D7">
-        <v>1.026119753226569</v>
+        <v>1.063761258770047</v>
       </c>
       <c r="E7">
-        <v>1.031079610846411</v>
+        <v>1.088371673601929</v>
       </c>
       <c r="F7">
-        <v>1.033960426983316</v>
+        <v>1.095822410659405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043837248733137</v>
+        <v>1.04202151481036</v>
       </c>
       <c r="J7">
-        <v>1.035166784265344</v>
+        <v>1.07896930753035</v>
       </c>
       <c r="K7">
-        <v>1.035909934849604</v>
+        <v>1.066176316337261</v>
       </c>
       <c r="L7">
-        <v>1.040813982044615</v>
+        <v>1.090729377516599</v>
       </c>
       <c r="M7">
-        <v>1.043662684411734</v>
+        <v>1.098163294816284</v>
       </c>
       <c r="N7">
-        <v>1.036636839834291</v>
+        <v>1.080501567706552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000760763646105</v>
+        <v>1.071805140248714</v>
       </c>
       <c r="D8">
-        <v>1.014781324734795</v>
+        <v>1.061713548327076</v>
       </c>
       <c r="E8">
-        <v>1.01583230225354</v>
+        <v>1.085510508318006</v>
       </c>
       <c r="F8">
-        <v>1.017819770138182</v>
+        <v>1.092765039878578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039567953604268</v>
+        <v>1.041403366916429</v>
       </c>
       <c r="J8">
-        <v>1.022346920760602</v>
+        <v>1.076614038145928</v>
       </c>
       <c r="K8">
-        <v>1.02576472792197</v>
+        <v>1.064375094377888</v>
       </c>
       <c r="L8">
-        <v>1.026802001938019</v>
+        <v>1.088110484728601</v>
       </c>
       <c r="M8">
-        <v>1.028763652420578</v>
+        <v>1.095346821272433</v>
       </c>
       <c r="N8">
-        <v>1.023798770652913</v>
+        <v>1.078142953569452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9704084272986919</v>
+        <v>1.066805045726392</v>
       </c>
       <c r="D9">
-        <v>0.9924871810066711</v>
+        <v>1.058065630383912</v>
       </c>
       <c r="E9">
-        <v>0.9858734063601494</v>
+        <v>1.080426283848626</v>
       </c>
       <c r="F9">
-        <v>0.9861228937782256</v>
+        <v>1.087335638874361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03102777563153</v>
+        <v>1.040286677261447</v>
       </c>
       <c r="J9">
-        <v>0.9970512285321893</v>
+        <v>1.072417859781438</v>
       </c>
       <c r="K9">
-        <v>1.005703335944928</v>
+        <v>1.061157868392248</v>
       </c>
       <c r="L9">
-        <v>0.9991999126381511</v>
+        <v>1.083450437239441</v>
       </c>
       <c r="M9">
-        <v>0.9994452026961254</v>
+        <v>1.090339370901535</v>
       </c>
       <c r="N9">
-        <v>0.9984671556400795</v>
+        <v>1.073940816150376</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9472727772588421</v>
+        <v>1.06343943207196</v>
       </c>
       <c r="D10">
-        <v>0.9755472021003906</v>
+        <v>1.055605639302639</v>
       </c>
       <c r="E10">
-        <v>0.9630958205560173</v>
+        <v>1.07700621698209</v>
       </c>
       <c r="F10">
-        <v>0.9620310323989064</v>
+        <v>1.083685703655597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024438838450897</v>
+        <v>1.039523237706534</v>
       </c>
       <c r="J10">
-        <v>0.9777466660139609</v>
+        <v>1.069587807784158</v>
       </c>
       <c r="K10">
-        <v>0.9903724553067614</v>
+        <v>1.058982621264047</v>
       </c>
       <c r="L10">
-        <v>0.9781649688705275</v>
+        <v>1.080311430537017</v>
       </c>
       <c r="M10">
-        <v>0.9771214229909589</v>
+        <v>1.086969153212357</v>
       </c>
       <c r="N10">
-        <v>0.9791351784288109</v>
+        <v>1.071106745154648</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9363277809920533</v>
+        <v>1.061973983880016</v>
       </c>
       <c r="D11">
-        <v>0.9675551413333</v>
+        <v>1.054533462367176</v>
       </c>
       <c r="E11">
-        <v>0.9523376998336164</v>
+        <v>1.075517581944003</v>
       </c>
       <c r="F11">
-        <v>0.9506522726557411</v>
+        <v>1.082097563310592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021306756111821</v>
+        <v>1.039188037489322</v>
       </c>
       <c r="J11">
-        <v>0.9686121671262802</v>
+        <v>1.068354239195502</v>
       </c>
       <c r="K11">
-        <v>0.9831160029509</v>
+        <v>1.05803319223013</v>
       </c>
       <c r="L11">
-        <v>0.9682181369201218</v>
+        <v>1.078944114725592</v>
       </c>
       <c r="M11">
-        <v>0.9665689397041792</v>
+        <v>1.085501786346033</v>
       </c>
       <c r="N11">
-        <v>0.9699877075049681</v>
+        <v>1.069871424757104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9320948098862293</v>
+        <v>1.061428392108094</v>
       </c>
       <c r="D12">
-        <v>0.9644685376863347</v>
+        <v>1.054134130795708</v>
       </c>
       <c r="E12">
-        <v>0.9481800345479698</v>
+        <v>1.07496343679943</v>
       </c>
       <c r="F12">
-        <v>0.9462545798857009</v>
+        <v>1.081506459355087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020093617533757</v>
+        <v>1.03906282368299</v>
       </c>
       <c r="J12">
-        <v>0.9650795400522298</v>
+        <v>1.067894780227683</v>
       </c>
       <c r="K12">
-        <v>0.9803096626952063</v>
+        <v>1.057679373736917</v>
       </c>
       <c r="L12">
-        <v>0.9643722429807163</v>
+        <v>1.078434977851239</v>
       </c>
       <c r="M12">
-        <v>0.9624893529995714</v>
+        <v>1.084955493473697</v>
       </c>
       <c r="N12">
-        <v>0.9664500636952746</v>
+        <v>1.06941131330485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9330109274985667</v>
+        <v>1.061545481017363</v>
       </c>
       <c r="D13">
-        <v>0.9651363397880539</v>
+        <v>1.054219837978475</v>
       </c>
       <c r="E13">
-        <v>0.9490797101805279</v>
+        <v>1.07508235774832</v>
       </c>
       <c r="F13">
-        <v>0.947206206251875</v>
+        <v>1.081633308049371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020356243044976</v>
+        <v>1.039089714566998</v>
       </c>
       <c r="J13">
-        <v>0.9658440720858473</v>
+        <v>1.067993393156873</v>
       </c>
       <c r="K13">
-        <v>0.9809170064853336</v>
+        <v>1.057755321850849</v>
       </c>
       <c r="L13">
-        <v>0.965204533768428</v>
+        <v>1.078544246829898</v>
       </c>
       <c r="M13">
-        <v>0.9633721975163487</v>
+        <v>1.085072732242021</v>
       </c>
       <c r="N13">
-        <v>0.9672156814520727</v>
+        <v>1.069510066275711</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9359814943932283</v>
+        <v>1.061928911011441</v>
       </c>
       <c r="D14">
-        <v>0.967302541766263</v>
+        <v>1.05450047563546</v>
       </c>
       <c r="E14">
-        <v>0.9519975100658433</v>
+        <v>1.075471800839876</v>
       </c>
       <c r="F14">
-        <v>0.9502924479876022</v>
+        <v>1.082048727155657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021207546328373</v>
+        <v>1.0391777017311</v>
       </c>
       <c r="J14">
-        <v>0.9683231680001275</v>
+        <v>1.068316286009095</v>
       </c>
       <c r="K14">
-        <v>0.9828864185960711</v>
+        <v>1.058003969267053</v>
       </c>
       <c r="L14">
-        <v>0.9679034924903452</v>
+        <v>1.078902055129835</v>
       </c>
       <c r="M14">
-        <v>0.9662351671271566</v>
+        <v>1.085456655286123</v>
       </c>
       <c r="N14">
-        <v>0.9696982979669075</v>
+        <v>1.069833417672819</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9377885683874284</v>
+        <v>1.062164986843628</v>
       </c>
       <c r="D15">
-        <v>0.9686208968916689</v>
+        <v>1.054673242157746</v>
       </c>
       <c r="E15">
-        <v>0.9537728928877991</v>
+        <v>1.075711589403691</v>
       </c>
       <c r="F15">
-        <v>0.9521702933368154</v>
+        <v>1.082304520574541</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021725196238975</v>
+        <v>1.039231819719906</v>
       </c>
       <c r="J15">
-        <v>0.9698312993008839</v>
+        <v>1.06851506340032</v>
       </c>
       <c r="K15">
-        <v>0.9840844974020236</v>
+        <v>1.058157014860463</v>
       </c>
       <c r="L15">
-        <v>0.9695454882019384</v>
+        <v>1.079122345222155</v>
       </c>
       <c r="M15">
-        <v>0.967977003209416</v>
+        <v>1.085693036447145</v>
       </c>
       <c r="N15">
-        <v>0.971208570987096</v>
+        <v>1.070032477350739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.947977407163839</v>
+        <v>1.063536514678114</v>
       </c>
       <c r="D16">
-        <v>0.9760622479396209</v>
+        <v>1.055676646622007</v>
       </c>
       <c r="E16">
-        <v>0.963788805431041</v>
+        <v>1.077104846710448</v>
       </c>
       <c r="F16">
-        <v>0.9627639837432356</v>
+        <v>1.083790937626597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024640209363586</v>
+        <v>1.039545385484385</v>
       </c>
       <c r="J16">
-        <v>0.9783347310715892</v>
+        <v>1.069669501324525</v>
       </c>
       <c r="K16">
-        <v>0.990839593803599</v>
+        <v>1.059045470779491</v>
       </c>
       <c r="L16">
-        <v>0.9788054555447568</v>
+        <v>1.080402000857588</v>
       </c>
       <c r="M16">
-        <v>0.9778009783675838</v>
+        <v>1.087066364760546</v>
       </c>
       <c r="N16">
-        <v>0.9797240786062731</v>
+        <v>1.071188554709213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9541029543946544</v>
+        <v>1.064394637258281</v>
       </c>
       <c r="D17">
-        <v>0.9805421894232814</v>
+        <v>1.056304166177033</v>
       </c>
       <c r="E17">
-        <v>0.9698150795125848</v>
+        <v>1.077976704776622</v>
       </c>
       <c r="F17">
-        <v>0.9691378065342868</v>
+        <v>1.08472123840924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026389174318138</v>
+        <v>1.039740831151798</v>
       </c>
       <c r="J17">
-        <v>0.983446774030183</v>
+        <v>1.070391447222897</v>
       </c>
       <c r="K17">
-        <v>0.9949002083706103</v>
+        <v>1.059600740378285</v>
       </c>
       <c r="L17">
-        <v>0.9843739015476941</v>
+        <v>1.081202498987691</v>
       </c>
       <c r="M17">
-        <v>0.9837095017173735</v>
+        <v>1.08792563701658</v>
       </c>
       <c r="N17">
-        <v>0.9848433812522276</v>
+        <v>1.071911525853568</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9575887049672063</v>
+        <v>1.064894385359911</v>
       </c>
       <c r="D18">
-        <v>0.983093430967719</v>
+        <v>1.056669515721171</v>
       </c>
       <c r="E18">
-        <v>0.9732459064736426</v>
+        <v>1.078484502326232</v>
       </c>
       <c r="F18">
-        <v>0.9727665208032158</v>
+        <v>1.085263127595278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027383022794359</v>
+        <v>1.039854385696796</v>
       </c>
       <c r="J18">
-        <v>0.9863555829971892</v>
+        <v>1.070811763244026</v>
       </c>
       <c r="K18">
-        <v>0.9972105178924225</v>
+        <v>1.05992389476571</v>
       </c>
       <c r="L18">
-        <v>0.9875430035935393</v>
+        <v>1.081668636513631</v>
       </c>
       <c r="M18">
-        <v>0.9870725022864807</v>
+        <v>1.088426062909397</v>
       </c>
       <c r="N18">
-        <v>0.9877563210616119</v>
+        <v>1.072332438771659</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9587631953940812</v>
+        <v>1.065064655394115</v>
       </c>
       <c r="D19">
-        <v>0.983953348409667</v>
+        <v>1.05679397733116</v>
       </c>
       <c r="E19">
-        <v>0.9744021468401407</v>
+        <v>1.078657523408926</v>
       </c>
       <c r="F19">
-        <v>0.9739894607795934</v>
+        <v>1.085447773626905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027717641562841</v>
+        <v>1.039893029595638</v>
       </c>
       <c r="J19">
-        <v>0.9873356331707108</v>
+        <v>1.070954948391306</v>
       </c>
       <c r="K19">
-        <v>0.9979888727085044</v>
+        <v>1.060033959889719</v>
       </c>
       <c r="L19">
-        <v>0.9886108557809897</v>
+        <v>1.081827446264755</v>
       </c>
       <c r="M19">
-        <v>0.9882057523696557</v>
+        <v>1.088596565265087</v>
       </c>
       <c r="N19">
-        <v>0.9887377630187933</v>
+        <v>1.072475827258272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9534549357741132</v>
+        <v>1.064302649821079</v>
       </c>
       <c r="D20">
-        <v>0.9800680513105787</v>
+        <v>1.056236908976246</v>
       </c>
       <c r="E20">
-        <v>0.9691773967655153</v>
+        <v>1.077883239742042</v>
       </c>
       <c r="F20">
-        <v>0.9684633458338432</v>
+        <v>1.084621502733092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026204295860719</v>
+        <v>1.039719907848246</v>
       </c>
       <c r="J20">
-        <v>0.9829059924421693</v>
+        <v>1.070314070475051</v>
       </c>
       <c r="K20">
-        <v>0.9944706745610984</v>
+        <v>1.059541240383963</v>
       </c>
       <c r="L20">
-        <v>0.9837847773704289</v>
+        <v>1.081116694007769</v>
       </c>
       <c r="M20">
-        <v>0.9830843619675077</v>
+        <v>1.087833525482473</v>
       </c>
       <c r="N20">
-        <v>0.9843018316923302</v>
+        <v>1.071834039221865</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9351116316724167</v>
+        <v>1.061816035514609</v>
       </c>
       <c r="D21">
-        <v>0.9666680914396287</v>
+        <v>1.054417864806501</v>
       </c>
       <c r="E21">
-        <v>0.9511430124523933</v>
+        <v>1.075357152996768</v>
       </c>
       <c r="F21">
-        <v>0.9493886274530382</v>
+        <v>1.081926429991723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020958306811113</v>
+        <v>1.039151811265703</v>
       </c>
       <c r="J21">
-        <v>0.967597213692419</v>
+        <v>1.068221237079171</v>
       </c>
       <c r="K21">
-        <v>0.9823097127389878</v>
+        <v>1.057930780990223</v>
       </c>
       <c r="L21">
-        <v>0.9671131321297673</v>
+        <v>1.078796724446941</v>
       </c>
       <c r="M21">
-        <v>0.9653967657700654</v>
+        <v>1.085343634276009</v>
       </c>
       <c r="N21">
-        <v>0.9689713127208139</v>
+        <v>1.069738233762512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9225880005790366</v>
+        <v>1.060245297610713</v>
       </c>
       <c r="D22">
-        <v>0.9575458307695384</v>
+        <v>1.053267912291113</v>
       </c>
       <c r="E22">
-        <v>0.9388485658780727</v>
+        <v>1.073761940234146</v>
       </c>
       <c r="F22">
-        <v>0.9363838100612649</v>
+        <v>1.080224978696507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017366278287445</v>
+        <v>1.038790539110787</v>
       </c>
       <c r="J22">
-        <v>0.9571464742809054</v>
+        <v>1.066898101622582</v>
       </c>
       <c r="K22">
-        <v>0.9740079850555413</v>
+        <v>1.056911506310972</v>
       </c>
       <c r="L22">
-        <v>0.9557372369161459</v>
+        <v>1.077330788133676</v>
       </c>
       <c r="M22">
-        <v>0.9533304098053065</v>
+        <v>1.083770903223467</v>
       </c>
       <c r="N22">
-        <v>0.9585057320606195</v>
+        <v>1.068413219301808</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9293328603986651</v>
+        <v>1.06107868138452</v>
       </c>
       <c r="D23">
-        <v>0.96245595011401</v>
+        <v>1.053878125510489</v>
       </c>
       <c r="E23">
-        <v>0.945468137475299</v>
+        <v>1.07460826594355</v>
       </c>
       <c r="F23">
-        <v>0.9433860445678305</v>
+        <v>1.081127623390382</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019301619409952</v>
+        <v>1.038982447311518</v>
       </c>
       <c r="J23">
-        <v>0.9627746567862929</v>
+        <v>1.067600223130985</v>
       </c>
       <c r="K23">
-        <v>0.9784786912367779</v>
+        <v>1.057452488598669</v>
       </c>
       <c r="L23">
-        <v>0.961863206273011</v>
+        <v>1.078108611295494</v>
       </c>
       <c r="M23">
-        <v>0.9598279777280668</v>
+        <v>1.084605337125529</v>
       </c>
       <c r="N23">
-        <v>0.9641419072307261</v>
+        <v>1.069116337903288</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.953748014865563</v>
+        <v>1.06434421739387</v>
       </c>
       <c r="D24">
-        <v>0.9802824836037545</v>
+        <v>1.056267301685646</v>
       </c>
       <c r="E24">
-        <v>0.9694657963888869</v>
+        <v>1.077925474860812</v>
       </c>
       <c r="F24">
-        <v>0.9687683786377315</v>
+        <v>1.084666571275527</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026287915167003</v>
+        <v>1.039729363565009</v>
       </c>
       <c r="J24">
-        <v>0.9831505721602454</v>
+        <v>1.070349036114279</v>
       </c>
       <c r="K24">
-        <v>0.9946649408825522</v>
+        <v>1.05956812810939</v>
       </c>
       <c r="L24">
-        <v>0.9840512191675312</v>
+        <v>1.081155467991911</v>
       </c>
       <c r="M24">
-        <v>0.9833670913295059</v>
+        <v>1.087875149107076</v>
       </c>
       <c r="N24">
-        <v>0.9845467587416599</v>
+        <v>1.071869054516311</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.978700855931538</v>
+        <v>1.068103216999295</v>
       </c>
       <c r="D25">
-        <v>0.9985716283608396</v>
+        <v>1.059013541773507</v>
       </c>
       <c r="E25">
-        <v>0.9940496931143497</v>
+        <v>1.081745918342872</v>
       </c>
       <c r="F25">
-        <v>0.9947719334100806</v>
+        <v>1.088744456257015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03337508602587</v>
+        <v>1.040578673853584</v>
       </c>
       <c r="J25">
-        <v>1.003966914735507</v>
+        <v>1.07350828878378</v>
       </c>
       <c r="K25">
-        <v>1.011192158501318</v>
+        <v>1.061994861098169</v>
       </c>
       <c r="L25">
-        <v>1.006741087608562</v>
+        <v>1.084660724411812</v>
       </c>
       <c r="M25">
-        <v>1.00745195417701</v>
+        <v>1.091639392246854</v>
       </c>
       <c r="N25">
-        <v>1.005392662911045</v>
+        <v>1.075032793686974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071078228498918</v>
+        <v>0.9965984329529944</v>
       </c>
       <c r="D2">
-        <v>1.061183748586212</v>
+        <v>1.011720742181376</v>
       </c>
       <c r="E2">
-        <v>1.084771117061936</v>
+        <v>1.011718733591607</v>
       </c>
       <c r="F2">
-        <v>1.091975180185917</v>
+        <v>1.013466433711005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041242387694905</v>
+        <v>1.038406114401593</v>
       </c>
       <c r="J2">
-        <v>1.076004643915476</v>
+        <v>1.01888136250251</v>
       </c>
       <c r="K2">
-        <v>1.063908500353023</v>
+        <v>1.023019168192627</v>
       </c>
       <c r="L2">
-        <v>1.087433274228871</v>
+        <v>1.023017186776123</v>
       </c>
       <c r="M2">
-        <v>1.094618801330121</v>
+        <v>1.024741294281933</v>
       </c>
       <c r="N2">
-        <v>1.077532693929294</v>
+        <v>1.020328290904589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073225611200939</v>
+        <v>1.008678165147838</v>
       </c>
       <c r="D3">
-        <v>1.062748287427633</v>
+        <v>1.020604867033013</v>
       </c>
       <c r="E3">
-        <v>1.086955617671272</v>
+        <v>1.023661598288282</v>
       </c>
       <c r="F3">
-        <v>1.094309064427237</v>
+        <v>1.026106794000881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041716542126218</v>
+        <v>1.041767913846436</v>
       </c>
       <c r="J3">
-        <v>1.07780420592111</v>
+        <v>1.028935018170731</v>
       </c>
       <c r="K3">
-        <v>1.065285720743031</v>
+        <v>1.030980721823109</v>
       </c>
       <c r="L3">
-        <v>1.08943356105254</v>
+        <v>1.034000417868256</v>
       </c>
       <c r="M3">
-        <v>1.096769496314435</v>
+        <v>1.036416184813237</v>
       </c>
       <c r="N3">
-        <v>1.079334811519388</v>
+        <v>1.03039622391703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07460943965118</v>
+        <v>1.016132771687607</v>
       </c>
       <c r="D4">
-        <v>1.063755611417724</v>
+        <v>1.026089495892063</v>
       </c>
       <c r="E4">
-        <v>1.088363775259226</v>
+        <v>1.031038899966077</v>
       </c>
       <c r="F4">
-        <v>1.095813968642354</v>
+        <v>1.033917319638384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042019819090874</v>
+        <v>1.043825934929248</v>
       </c>
       <c r="J4">
-        <v>1.078962812116172</v>
+        <v>1.035132612531598</v>
       </c>
       <c r="K4">
-        <v>1.066171353673845</v>
+        <v>1.03588291931741</v>
       </c>
       <c r="L4">
-        <v>1.090722151676594</v>
+        <v>1.040776607278274</v>
       </c>
       <c r="M4">
-        <v>1.098155521383163</v>
+        <v>1.043622925993683</v>
       </c>
       <c r="N4">
-        <v>1.080495063068142</v>
+        <v>1.036602619572763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075189875220028</v>
+        <v>1.01918778594647</v>
       </c>
       <c r="D5">
-        <v>1.064177906796334</v>
+        <v>1.028337401246208</v>
       </c>
       <c r="E5">
-        <v>1.08895451302169</v>
+        <v>1.03406384230625</v>
       </c>
       <c r="F5">
-        <v>1.096445401165437</v>
+        <v>1.037120511530766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04214647933247</v>
+        <v>1.044665229913194</v>
       </c>
       <c r="J5">
-        <v>1.079448521541835</v>
+        <v>1.037670771245727</v>
       </c>
       <c r="K5">
-        <v>1.066542373259453</v>
+        <v>1.0378891004299</v>
       </c>
       <c r="L5">
-        <v>1.091262533476441</v>
+        <v>1.043553077814519</v>
       </c>
       <c r="M5">
-        <v>1.098736892914698</v>
+        <v>1.046576751189014</v>
       </c>
       <c r="N5">
-        <v>1.080981462256901</v>
+        <v>1.039144382763397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075287256076027</v>
+        <v>1.019696313072983</v>
       </c>
       <c r="D6">
-        <v>1.064248743284328</v>
+        <v>1.028711585128813</v>
       </c>
       <c r="E6">
-        <v>1.089053628004692</v>
+        <v>1.03456745555307</v>
       </c>
       <c r="F6">
-        <v>1.096551350354559</v>
+        <v>1.037653838261178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042167697279688</v>
+        <v>1.044804690345799</v>
       </c>
       <c r="J6">
-        <v>1.079529994823058</v>
+        <v>1.038093160706594</v>
       </c>
       <c r="K6">
-        <v>1.066604593430315</v>
+        <v>1.03822287198815</v>
       </c>
       <c r="L6">
-        <v>1.091353188140443</v>
+        <v>1.044015206408719</v>
       </c>
       <c r="M6">
-        <v>1.09883443164847</v>
+        <v>1.047068455486658</v>
       </c>
       <c r="N6">
-        <v>1.081063051239528</v>
+        <v>1.039567372065748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074617200626703</v>
+        <v>1.016173893604946</v>
       </c>
       <c r="D7">
-        <v>1.063761258770047</v>
+        <v>1.026119753226569</v>
       </c>
       <c r="E7">
-        <v>1.088371673601929</v>
+        <v>1.031079610846411</v>
       </c>
       <c r="F7">
-        <v>1.095822410659405</v>
+        <v>1.033960426983316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04202151481036</v>
+        <v>1.043837248733136</v>
       </c>
       <c r="J7">
-        <v>1.07896930753035</v>
+        <v>1.035166784265344</v>
       </c>
       <c r="K7">
-        <v>1.066176316337261</v>
+        <v>1.035909934849603</v>
       </c>
       <c r="L7">
-        <v>1.090729377516599</v>
+        <v>1.040813982044615</v>
       </c>
       <c r="M7">
-        <v>1.098163294816284</v>
+        <v>1.043662684411734</v>
       </c>
       <c r="N7">
-        <v>1.080501567706552</v>
+        <v>1.036636839834291</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071805140248714</v>
+        <v>1.000760763646103</v>
       </c>
       <c r="D8">
-        <v>1.061713548327076</v>
+        <v>1.014781324734794</v>
       </c>
       <c r="E8">
-        <v>1.085510508318006</v>
+        <v>1.015832302253539</v>
       </c>
       <c r="F8">
-        <v>1.092765039878578</v>
+        <v>1.017819770138181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041403366916429</v>
+        <v>1.039567953604268</v>
       </c>
       <c r="J8">
-        <v>1.076614038145928</v>
+        <v>1.022346920760601</v>
       </c>
       <c r="K8">
-        <v>1.064375094377888</v>
+        <v>1.025764727921969</v>
       </c>
       <c r="L8">
-        <v>1.088110484728601</v>
+        <v>1.026802001938017</v>
       </c>
       <c r="M8">
-        <v>1.095346821272433</v>
+        <v>1.028763652420576</v>
       </c>
       <c r="N8">
-        <v>1.078142953569452</v>
+        <v>1.023798770652912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066805045726392</v>
+        <v>0.9704084272986918</v>
       </c>
       <c r="D9">
-        <v>1.058065630383912</v>
+        <v>0.9924871810066709</v>
       </c>
       <c r="E9">
-        <v>1.080426283848626</v>
+        <v>0.9858734063601498</v>
       </c>
       <c r="F9">
-        <v>1.087335638874361</v>
+        <v>0.9861228937782262</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040286677261447</v>
+        <v>1.03102777563153</v>
       </c>
       <c r="J9">
-        <v>1.072417859781438</v>
+        <v>0.9970512285321894</v>
       </c>
       <c r="K9">
-        <v>1.061157868392248</v>
+        <v>1.005703335944928</v>
       </c>
       <c r="L9">
-        <v>1.083450437239441</v>
+        <v>0.9991999126381516</v>
       </c>
       <c r="M9">
-        <v>1.090339370901535</v>
+        <v>0.9994452026961258</v>
       </c>
       <c r="N9">
-        <v>1.073940816150376</v>
+        <v>0.9984671556400793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.06343943207196</v>
+        <v>0.9472727772588438</v>
       </c>
       <c r="D10">
-        <v>1.055605639302639</v>
+        <v>0.9755472021003916</v>
       </c>
       <c r="E10">
-        <v>1.07700621698209</v>
+        <v>0.9630958205560188</v>
       </c>
       <c r="F10">
-        <v>1.083685703655597</v>
+        <v>0.9620310323989077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039523237706534</v>
+        <v>1.024438838450898</v>
       </c>
       <c r="J10">
-        <v>1.069587807784158</v>
+        <v>0.9777466660139623</v>
       </c>
       <c r="K10">
-        <v>1.058982621264047</v>
+        <v>0.9903724553067625</v>
       </c>
       <c r="L10">
-        <v>1.080311430537017</v>
+        <v>0.9781649688705292</v>
       </c>
       <c r="M10">
-        <v>1.086969153212357</v>
+        <v>0.9771214229909605</v>
       </c>
       <c r="N10">
-        <v>1.071106745154648</v>
+        <v>0.9791351784288121</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061973983880016</v>
+        <v>0.9363277809920544</v>
       </c>
       <c r="D11">
-        <v>1.054533462367176</v>
+        <v>0.967555141333301</v>
       </c>
       <c r="E11">
-        <v>1.075517581944003</v>
+        <v>0.9523376998336178</v>
       </c>
       <c r="F11">
-        <v>1.082097563310592</v>
+        <v>0.950652272655743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039188037489322</v>
+        <v>1.021306756111821</v>
       </c>
       <c r="J11">
-        <v>1.068354239195502</v>
+        <v>0.9686121671262813</v>
       </c>
       <c r="K11">
-        <v>1.05803319223013</v>
+        <v>0.9831160029509008</v>
       </c>
       <c r="L11">
-        <v>1.078944114725592</v>
+        <v>0.9682181369201233</v>
       </c>
       <c r="M11">
-        <v>1.085501786346033</v>
+        <v>0.9665689397041809</v>
       </c>
       <c r="N11">
-        <v>1.069871424757104</v>
+        <v>0.9699877075049691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061428392108094</v>
+        <v>0.9320948098862315</v>
       </c>
       <c r="D12">
-        <v>1.054134130795708</v>
+        <v>0.9644685376863363</v>
       </c>
       <c r="E12">
-        <v>1.07496343679943</v>
+        <v>0.9481800345479721</v>
       </c>
       <c r="F12">
-        <v>1.081506459355087</v>
+        <v>0.9462545798857034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03906282368299</v>
+        <v>1.020093617533758</v>
       </c>
       <c r="J12">
-        <v>1.067894780227683</v>
+        <v>0.9650795400522323</v>
       </c>
       <c r="K12">
-        <v>1.057679373736917</v>
+        <v>0.980309662695208</v>
       </c>
       <c r="L12">
-        <v>1.078434977851239</v>
+        <v>0.9643722429807186</v>
       </c>
       <c r="M12">
-        <v>1.084955493473697</v>
+        <v>0.9624893529995735</v>
       </c>
       <c r="N12">
-        <v>1.06941131330485</v>
+        <v>0.9664500636952766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061545481017363</v>
+        <v>0.93301092749857</v>
       </c>
       <c r="D13">
-        <v>1.054219837978475</v>
+        <v>0.9651363397880565</v>
       </c>
       <c r="E13">
-        <v>1.07508235774832</v>
+        <v>0.9490797101805316</v>
       </c>
       <c r="F13">
-        <v>1.081633308049371</v>
+        <v>0.9472062062518789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039089714566998</v>
+        <v>1.020356243044977</v>
       </c>
       <c r="J13">
-        <v>1.067993393156873</v>
+        <v>0.9658440720858503</v>
       </c>
       <c r="K13">
-        <v>1.057755321850849</v>
+        <v>0.9809170064853363</v>
       </c>
       <c r="L13">
-        <v>1.078544246829898</v>
+        <v>0.9652045337684314</v>
       </c>
       <c r="M13">
-        <v>1.085072732242021</v>
+        <v>0.9633721975163524</v>
       </c>
       <c r="N13">
-        <v>1.069510066275711</v>
+        <v>0.9672156814520757</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061928911011441</v>
+        <v>0.9359814943932242</v>
       </c>
       <c r="D14">
-        <v>1.05450047563546</v>
+        <v>0.9673025417662596</v>
       </c>
       <c r="E14">
-        <v>1.075471800839876</v>
+        <v>0.9519975100658392</v>
       </c>
       <c r="F14">
-        <v>1.082048727155657</v>
+        <v>0.9502924479875983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0391777017311</v>
+        <v>1.021207546328371</v>
       </c>
       <c r="J14">
-        <v>1.068316286009095</v>
+        <v>0.9683231680001237</v>
       </c>
       <c r="K14">
-        <v>1.058003969267053</v>
+        <v>0.9828864185960677</v>
       </c>
       <c r="L14">
-        <v>1.078902055129835</v>
+        <v>0.9679034924903412</v>
       </c>
       <c r="M14">
-        <v>1.085456655286123</v>
+        <v>0.9662351671271528</v>
       </c>
       <c r="N14">
-        <v>1.069833417672819</v>
+        <v>0.969698297966904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.062164986843628</v>
+        <v>0.9377885683874307</v>
       </c>
       <c r="D15">
-        <v>1.054673242157746</v>
+        <v>0.9686208968916709</v>
       </c>
       <c r="E15">
-        <v>1.075711589403691</v>
+        <v>0.9537728928878016</v>
       </c>
       <c r="F15">
-        <v>1.082304520574541</v>
+        <v>0.9521702933368179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039231819719906</v>
+        <v>1.021725196238976</v>
       </c>
       <c r="J15">
-        <v>1.06851506340032</v>
+        <v>0.9698312993008861</v>
       </c>
       <c r="K15">
-        <v>1.058157014860463</v>
+        <v>0.9840844974020257</v>
       </c>
       <c r="L15">
-        <v>1.079122345222155</v>
+        <v>0.9695454882019411</v>
       </c>
       <c r="M15">
-        <v>1.085693036447145</v>
+        <v>0.9679770032094186</v>
       </c>
       <c r="N15">
-        <v>1.070032477350739</v>
+        <v>0.9712085709870986</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063536514678114</v>
+        <v>0.9479774071638364</v>
       </c>
       <c r="D16">
-        <v>1.055676646622007</v>
+        <v>0.9760622479396188</v>
       </c>
       <c r="E16">
-        <v>1.077104846710448</v>
+        <v>0.963788805431038</v>
       </c>
       <c r="F16">
-        <v>1.083790937626597</v>
+        <v>0.9627639837432322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039545385484385</v>
+        <v>1.024640209363585</v>
       </c>
       <c r="J16">
-        <v>1.069669501324525</v>
+        <v>0.9783347310715866</v>
       </c>
       <c r="K16">
-        <v>1.059045470779491</v>
+        <v>0.990839593803597</v>
       </c>
       <c r="L16">
-        <v>1.080402000857588</v>
+        <v>0.9788054555447538</v>
       </c>
       <c r="M16">
-        <v>1.087066364760546</v>
+        <v>0.9778009783675807</v>
       </c>
       <c r="N16">
-        <v>1.071188554709213</v>
+        <v>0.9797240786062705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064394637258281</v>
+        <v>0.9541029543946546</v>
       </c>
       <c r="D17">
-        <v>1.056304166177033</v>
+        <v>0.9805421894232816</v>
       </c>
       <c r="E17">
-        <v>1.077976704776622</v>
+        <v>0.9698150795125851</v>
       </c>
       <c r="F17">
-        <v>1.08472123840924</v>
+        <v>0.9691378065342874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039740831151798</v>
+        <v>1.026389174318139</v>
       </c>
       <c r="J17">
-        <v>1.070391447222897</v>
+        <v>0.9834467740301831</v>
       </c>
       <c r="K17">
-        <v>1.059600740378285</v>
+        <v>0.9949002083706106</v>
       </c>
       <c r="L17">
-        <v>1.081202498987691</v>
+        <v>0.9843739015476944</v>
       </c>
       <c r="M17">
-        <v>1.08792563701658</v>
+        <v>0.9837095017173738</v>
       </c>
       <c r="N17">
-        <v>1.071911525853568</v>
+        <v>0.9848433812522276</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064894385359911</v>
+        <v>0.9575887049672097</v>
       </c>
       <c r="D18">
-        <v>1.056669515721171</v>
+        <v>0.9830934309677218</v>
       </c>
       <c r="E18">
-        <v>1.078484502326232</v>
+        <v>0.9732459064736467</v>
       </c>
       <c r="F18">
-        <v>1.085263127595278</v>
+        <v>0.9727665208032201</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039854385696796</v>
+        <v>1.02738302279436</v>
       </c>
       <c r="J18">
-        <v>1.070811763244026</v>
+        <v>0.9863555829971928</v>
       </c>
       <c r="K18">
-        <v>1.05992389476571</v>
+        <v>0.9972105178924251</v>
       </c>
       <c r="L18">
-        <v>1.081668636513631</v>
+        <v>0.9875430035935432</v>
       </c>
       <c r="M18">
-        <v>1.088426062909397</v>
+        <v>0.9870725022864846</v>
       </c>
       <c r="N18">
-        <v>1.072332438771659</v>
+        <v>0.9877563210616153</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065064655394115</v>
+        <v>0.9587631953940806</v>
       </c>
       <c r="D19">
-        <v>1.05679397733116</v>
+        <v>0.9839533484096664</v>
       </c>
       <c r="E19">
-        <v>1.078657523408926</v>
+        <v>0.9744021468401405</v>
       </c>
       <c r="F19">
-        <v>1.085447773626905</v>
+        <v>0.973989460779593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039893029595638</v>
+        <v>1.027717641562841</v>
       </c>
       <c r="J19">
-        <v>1.070954948391306</v>
+        <v>0.9873356331707103</v>
       </c>
       <c r="K19">
-        <v>1.060033959889719</v>
+        <v>0.9979888727085039</v>
       </c>
       <c r="L19">
-        <v>1.081827446264755</v>
+        <v>0.9886108557809896</v>
       </c>
       <c r="M19">
-        <v>1.088596565265087</v>
+        <v>0.9882057523696556</v>
       </c>
       <c r="N19">
-        <v>1.072475827258272</v>
+        <v>0.9887377630187926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064302649821079</v>
+        <v>0.9534549357741144</v>
       </c>
       <c r="D20">
-        <v>1.056236908976246</v>
+        <v>0.9800680513105797</v>
       </c>
       <c r="E20">
-        <v>1.077883239742042</v>
+        <v>0.9691773967655162</v>
       </c>
       <c r="F20">
-        <v>1.084621502733092</v>
+        <v>0.968463345833844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039719907848246</v>
+        <v>1.02620429586072</v>
       </c>
       <c r="J20">
-        <v>1.070314070475051</v>
+        <v>0.9829059924421701</v>
       </c>
       <c r="K20">
-        <v>1.059541240383963</v>
+        <v>0.9944706745610992</v>
       </c>
       <c r="L20">
-        <v>1.081116694007769</v>
+        <v>0.98378477737043</v>
       </c>
       <c r="M20">
-        <v>1.087833525482473</v>
+        <v>0.9830843619675084</v>
       </c>
       <c r="N20">
-        <v>1.071834039221865</v>
+        <v>0.984301831692331</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061816035514609</v>
+        <v>0.9351116316724128</v>
       </c>
       <c r="D21">
-        <v>1.054417864806501</v>
+        <v>0.9666680914396256</v>
       </c>
       <c r="E21">
-        <v>1.075357152996768</v>
+        <v>0.9511430124523893</v>
       </c>
       <c r="F21">
-        <v>1.081926429991723</v>
+        <v>0.9493886274530344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039151811265703</v>
+        <v>1.020958306811111</v>
       </c>
       <c r="J21">
-        <v>1.068221237079171</v>
+        <v>0.9675972136924154</v>
       </c>
       <c r="K21">
-        <v>1.057930780990223</v>
+        <v>0.982309712738985</v>
       </c>
       <c r="L21">
-        <v>1.078796724446941</v>
+        <v>0.9671131321297632</v>
       </c>
       <c r="M21">
-        <v>1.085343634276009</v>
+        <v>0.9653967657700618</v>
       </c>
       <c r="N21">
-        <v>1.069738233762512</v>
+        <v>0.9689713127208104</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060245297610713</v>
+        <v>0.9225880005790406</v>
       </c>
       <c r="D22">
-        <v>1.053267912291113</v>
+        <v>0.9575458307695415</v>
       </c>
       <c r="E22">
-        <v>1.073761940234146</v>
+        <v>0.9388485658780771</v>
       </c>
       <c r="F22">
-        <v>1.080224978696507</v>
+        <v>0.9363838100612696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038790539110787</v>
+        <v>1.017366278287447</v>
       </c>
       <c r="J22">
-        <v>1.066898101622582</v>
+        <v>0.9571464742809093</v>
       </c>
       <c r="K22">
-        <v>1.056911506310972</v>
+        <v>0.9740079850555443</v>
       </c>
       <c r="L22">
-        <v>1.077330788133676</v>
+        <v>0.9557372369161498</v>
       </c>
       <c r="M22">
-        <v>1.083770903223467</v>
+        <v>0.9533304098053108</v>
       </c>
       <c r="N22">
-        <v>1.068413219301808</v>
+        <v>0.9585057320606234</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06107868138452</v>
+        <v>0.9293328603986699</v>
       </c>
       <c r="D23">
-        <v>1.053878125510489</v>
+        <v>0.9624559501140137</v>
       </c>
       <c r="E23">
-        <v>1.07460826594355</v>
+        <v>0.9454681374753037</v>
       </c>
       <c r="F23">
-        <v>1.081127623390382</v>
+        <v>0.9433860445678354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038982447311518</v>
+        <v>1.019301619409953</v>
       </c>
       <c r="J23">
-        <v>1.067600223130985</v>
+        <v>0.9627746567862974</v>
       </c>
       <c r="K23">
-        <v>1.057452488598669</v>
+        <v>0.9784786912367813</v>
       </c>
       <c r="L23">
-        <v>1.078108611295494</v>
+        <v>0.9618632062730157</v>
       </c>
       <c r="M23">
-        <v>1.084605337125529</v>
+        <v>0.9598279777280716</v>
       </c>
       <c r="N23">
-        <v>1.069116337903288</v>
+        <v>0.9641419072307305</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06434421739387</v>
+        <v>0.9537480148655638</v>
       </c>
       <c r="D24">
-        <v>1.056267301685646</v>
+        <v>0.9802824836037549</v>
       </c>
       <c r="E24">
-        <v>1.077925474860812</v>
+        <v>0.9694657963888876</v>
       </c>
       <c r="F24">
-        <v>1.084666571275527</v>
+        <v>0.9687683786377322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039729363565009</v>
+        <v>1.026287915167004</v>
       </c>
       <c r="J24">
-        <v>1.070349036114279</v>
+        <v>0.9831505721602462</v>
       </c>
       <c r="K24">
-        <v>1.05956812810939</v>
+        <v>0.9946649408825529</v>
       </c>
       <c r="L24">
-        <v>1.081155467991911</v>
+        <v>0.984051219167532</v>
       </c>
       <c r="M24">
-        <v>1.087875149107076</v>
+        <v>0.9833670913295067</v>
       </c>
       <c r="N24">
-        <v>1.071869054516311</v>
+        <v>0.9845467587416606</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068103216999295</v>
+        <v>0.9787008559315382</v>
       </c>
       <c r="D25">
-        <v>1.059013541773507</v>
+        <v>0.99857162836084</v>
       </c>
       <c r="E25">
-        <v>1.081745918342872</v>
+        <v>0.9940496931143499</v>
       </c>
       <c r="F25">
-        <v>1.088744456257015</v>
+        <v>0.9947719334100805</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040578673853584</v>
+        <v>1.03337508602587</v>
       </c>
       <c r="J25">
-        <v>1.07350828878378</v>
+        <v>1.003966914735507</v>
       </c>
       <c r="K25">
-        <v>1.061994861098169</v>
+        <v>1.011192158501319</v>
       </c>
       <c r="L25">
-        <v>1.084660724411812</v>
+        <v>1.006741087608563</v>
       </c>
       <c r="M25">
-        <v>1.091639392246854</v>
+        <v>1.00745195417701</v>
       </c>
       <c r="N25">
-        <v>1.075032793686974</v>
+        <v>1.005392662911046</v>
       </c>
     </row>
   </sheetData>
